--- a/ocr (3).xlsx
+++ b/ocr (3).xlsx
@@ -201,10 +201,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,7 +532,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I12"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,7 +575,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
